--- a/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,21</t>
+          <t>2,16; 6,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,43</t>
+          <t>1,72; 5,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,24</t>
+          <t>2,98; 7,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,08</t>
+          <t>3,45; 8,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,62</t>
+          <t>1,67; 5,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,76</t>
+          <t>2,56; 7,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,36</t>
+          <t>2,88; 7,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,32</t>
+          <t>4,39; 8,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,09</t>
+          <t>2,41; 5,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,42</t>
+          <t>2,43; 5,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,65</t>
+          <t>3,34; 6,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,23</t>
+          <t>4,34; 7,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,47</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,92</t>
+          <t>2,98; 7,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,69</t>
+          <t>2,52; 6,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,62</t>
+          <t>2,21; 5,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,7</t>
+          <t>1,22; 5,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,86</t>
+          <t>1,18; 5,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,14</t>
+          <t>1,07; 4,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,91</t>
+          <t>3,33; 6,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>1,22; 3,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,88</t>
+          <t>2,72; 6,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,61</t>
+          <t>2,05; 4,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,55</t>
+          <t>3,0; 5,75</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,76</t>
+          <t>0,68; 2,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,64</t>
+          <t>0,45; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,61</t>
+          <t>0,69; 6,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,67</t>
+          <t>0,41; 3,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,34</t>
+          <t>0,58; 5,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,07</t>
+          <t>1,1; 5,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,04</t>
+          <t>0,94; 3,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,48</t>
+          <t>0,32; 1,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,68</t>
+          <t>0,68; 2,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,31</t>
+          <t>0,21; 1,27</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1145,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,8</t>
+          <t>0,5; 1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,84</t>
+          <t>0,4; 1,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,09</t>
+          <t>0,48; 2,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,6</t>
+          <t>0,74; 2,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,63</t>
+          <t>0,79; 2,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,57</t>
+          <t>0,32; 1,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,73</t>
+          <t>0,72; 1,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,5</t>
+          <t>0,05; 0,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,86</t>
+          <t>0,72; 1,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,56</t>
+          <t>0,51; 1,53</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1295,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,02</t>
+          <t>0,34; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,19</t>
+          <t>0,19; 1,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,11</t>
+          <t>0,44; 2,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,37</t>
+          <t>0,41; 1,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,49</t>
+          <t>0,21; 1,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,55</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,72</t>
+          <t>0,56; 1,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,95</t>
+          <t>0,3; 1,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,2</t>
+          <t>0,74; 5,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,87</t>
+          <t>0,3; 2,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,0</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,21</t>
+          <t>0,79; 2,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,87</t>
+          <t>0,52; 1,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,71</t>
+          <t>0,92; 2,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,68</t>
+          <t>0,8; 2,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,81</t>
+          <t>0,71; 1,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,07</t>
+          <t>0,78; 2,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,33</t>
+          <t>0,89; 2,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,64</t>
+          <t>0,79; 2,77</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,89</t>
+          <t>1,06; 1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,77</t>
+          <t>0,92; 1,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,38</t>
+          <t>1,41; 2,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,35</t>
+          <t>1,19; 2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,09</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,69</t>
+          <t>0,89; 1,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,35</t>
+          <t>1,45; 2,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,64; 2,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,89</t>
+          <t>1,24; 1,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,56</t>
+          <t>1,02; 1,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,21</t>
+          <t>1,5; 2,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,33</t>
+          <t>1,61; 2,34</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico privado en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17899</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13719</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20621</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26965</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10064</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13942</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16452</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27963</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27661</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37073</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10225; 28624</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7448; 23945</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12790; 32625</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17431; 40502</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5124; 17586</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7925; 23798</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9985; 26333</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19636; 36636</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18817; 40619</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18065; 40233</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25928; 50220</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41313; 69051</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5953</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20141</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16325</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9790</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9508</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18536</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15743</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29650</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24038</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>34862</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2025; 11392</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12397; 31793</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9466; 25153</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9977; 25644</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4543; 18815</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3904; 18729</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3963; 15209</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12739; 26487</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8980; 25108</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20301; 45567</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15322; 35153</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25039; 47982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6344</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3201</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12508</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9546</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5307</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3700; 15784</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6683</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2357; 15437</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4135</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1151; 10322</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1043; 9390</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>957; 8950</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1837; 8913</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6697; 21953</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2866; 13269</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4620; 19004</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1711; 10629</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11984</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11001</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10380</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12413</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8062</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22808</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19062</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6173; 20324</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6602</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4560; 20956</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4948; 21542</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5280; 18062</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6615</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6454; 20924</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3085; 16382</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13942; 35108</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>952; 9337</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14233; 35850</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10266; 30831</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5301</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8077</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6574</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7487</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5248</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2083; 11611</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4651</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1067; 10860</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7446</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3224; 16103</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3449; 11313</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1960; 13756</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7292</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7575; 22537</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3947; 13111</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16709</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12043</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17198</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11338</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17557</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>18005</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20085</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14616</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4260</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1967; 15016</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>851; 7730</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17493</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9919; 26884</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5772; 20494</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9890; 29790</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6061; 19560</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10920; 28293</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10706; 28083</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12059; 31465</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7930; 27765</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>43624</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>61539</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>43622</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>65388</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>76135</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>87246</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>126926</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>135541</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34575; 62841</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31344; 59979</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>47675; 79541</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>40112; 77315</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>42683; 72324</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>31201; 58069</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>51033; 85090</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58519; 92738</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>82133; 123443</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>70371; 109742</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>103406; 151654</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>112004; 162346</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
